--- a/api/client/templates/cetak/laporan_pemeliharaan_usulan.xlsx
+++ b/api/client/templates/cetak/laporan_pemeliharaan_usulan.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
-    <t>KUASA PENGGUNA BARANG ( BIDANG ASET DAERAH)</t>
-  </si>
-  <si>
     <t>TAHUN 2024</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>NAMA PEMELIHARAAN</t>
+  </si>
+  <si>
+    <t>PENGGUNA BARANG</t>
   </si>
 </sst>
 </file>
@@ -203,32 +203,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,7 +513,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A3" sqref="A3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,56 +531,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="A2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -596,112 +596,112 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="11" t="s">
         <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="10" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="M6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="11"/>
+      <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>4</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>5</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>6</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>7</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>8</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>9</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>10</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <v>11</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <v>12</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <v>13</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="6">
         <v>14</v>
       </c>
     </row>
